--- a/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>56,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>40,85%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,04; 47,0</t>
+          <t>4,5; 43,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,37; 47,15</t>
+          <t>34,99; 73,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,61; 45,2</t>
+          <t>27,22; 56,89</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>40,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>40,87%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,29; 53,39</t>
+          <t>35,04; 47,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,54; 47,86</t>
+          <t>34,37; 47,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,17; 48,58</t>
+          <t>36,61; 45,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>48,2%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 43,86</t>
+          <t>39,99; 55,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,99; 73,46</t>
+          <t>41,31; 55,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,22; 56,89</t>
+          <t>42,8; 52,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>43,64%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,99; 55,51</t>
+          <t>40,29; 53,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41,31; 55,63</t>
+          <t>34,54; 47,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,8; 52,92</t>
+          <t>39,17; 48,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,82; 53,22</t>
+          <t>33,6; 52,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 53,82</t>
+          <t>37,62; 54,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,2; 50,77</t>
+          <t>38,31; 50,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,04; 47,0</t>
+          <t>35,36; 46,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,37; 47,15</t>
+          <t>34,31; 47,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,61; 45,2</t>
+          <t>36,42; 45,0</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,99; 55,51</t>
+          <t>40,56; 56,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,31; 55,63</t>
+          <t>41,64; 55,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,8; 52,92</t>
+          <t>43,25; 53,41</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,29; 53,39</t>
+          <t>39,28; 52,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,54; 47,86</t>
+          <t>34,88; 48,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,17; 48,58</t>
+          <t>39,08; 48,62</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,03; 47,53</t>
+          <t>40,22; 47,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,78; 47,32</t>
+          <t>40,6; 47,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,55; 46,3</t>
+          <t>41,53; 46,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 43,86</t>
+          <t>5,34; 45,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,99; 73,46</t>
+          <t>34,72; 75,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,22; 56,89</t>
+          <t>26,7; 56,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,6; 52,13</t>
+          <t>33,81; 53,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,62; 54,02</t>
+          <t>37,13; 53,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,31; 50,83</t>
+          <t>38,7; 50,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,36; 46,73</t>
+          <t>35,31; 46,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,31; 47,04</t>
+          <t>34,61; 47,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,42; 45,0</t>
+          <t>36,37; 45,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,56; 56,13</t>
+          <t>40,36; 55,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,64; 55,24</t>
+          <t>41,88; 55,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,25; 53,41</t>
+          <t>43,05; 53,17</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,28; 52,57</t>
+          <t>40,13; 53,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,88; 48,4</t>
+          <t>34,81; 48,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,08; 48,62</t>
+          <t>38,97; 48,5</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,22; 47,64</t>
+          <t>39,99; 47,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,6; 47,4</t>
+          <t>40,65; 47,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,53; 46,45</t>
+          <t>41,2; 46,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2906_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,39%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>42,49%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 45,69</t>
+          <t>40,18; 54,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 75,77</t>
+          <t>28,19; 47,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 56,93</t>
+          <t>36,08; 48,6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>40,16%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 53,08</t>
+          <t>32,89; 45,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,13; 53,54</t>
+          <t>34,64; 46,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,7; 50,8</t>
+          <t>35,87; 44,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>47,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>46,73%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,31; 46,77</t>
+          <t>39,78; 55,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,61; 47,24</t>
+          <t>38,13; 53,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 45,17</t>
+          <t>41,25; 51,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>43,37%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,36; 55,69</t>
+          <t>34,67; 47,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,88; 55,58</t>
+          <t>39,43; 52,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,05; 53,17</t>
+          <t>38,75; 48,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>43,03%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,13; 53,17</t>
+          <t>40,09; 46,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,81; 48,43</t>
+          <t>38,55; 46,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,97; 48,5</t>
+          <t>40,47; 45,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>43,92%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>44,02%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>43,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>39,99; 47,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>40,65; 47,52</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>41,2; 46,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
